--- a/9.1A - 7.xlsx
+++ b/9.1A - 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F846A-E712-495D-9C4D-D9DF4A1C7BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169FCA91-D58A-4437-8E50-55C38B9BAAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,12 +258,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -558,7 +553,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,35 +604,35 @@
         <v>9</v>
       </c>
       <c r="B2" s="7">
-        <f>SUM(B3:B5)</f>
+        <f t="shared" ref="B2:I2" si="0">SUM(B3:B5)</f>
         <v>27</v>
       </c>
       <c r="C2" s="7">
-        <f>SUM(C3:C5)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D2" s="7">
-        <f>SUM(D3:D5)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="E2" s="7">
-        <f>SUM(E3:E5)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="F2" s="7">
-        <f>SUM(F3:F5)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G2" s="7">
-        <f>SUM(G3:G5)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="H2" s="7">
-        <f>SUM(H3:H5)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I2" s="7">
-        <f>SUM(I3:I5)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J2" s="5">
@@ -986,23 +981,18 @@
       <c r="A22" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13:A17 B12:H12 B7:I9 A6:I7 B2:I2">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:H20">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:I2 A6:I7 B7:I9 B12:H12 A13:A17">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
